--- a/biology/Botanique/Emmenanthe_penduliflora/Emmenanthe_penduliflora.xlsx
+++ b/biology/Botanique/Emmenanthe_penduliflora/Emmenanthe_penduliflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmenanthe penduliflora est une espèce de plantes à fleurs de la famille des Hydrophyllaceae, originaire du sud-ouest des États-Unis ou du nord du Mexique.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée mesure de 15 à 50 cm de hauteur. Les tiges sont couvertes de poils collants, glanduleux, émettant une odeur médicinale assez plaisante. Les feuilles, oblongues et pennatifides, mesurent entre 2,5 et 10 cm de longueur[1].
-Appareil reproducteur
-La floraison a lieu entre mars et juillet.
-Les fleurs sont jaune pâle, en forme de clochette ; elles mesurent environ 1,3 cm de longueur. Les clochettes s'achèvent par 5 lobes arrondis libres et l'androcée comprend 5 étamines[1].
-Les corolles restent longtemps en place après qu'elles sont fanées et desséchées. Elles prennent alors un aspect papyracé et bruissent dans le vent, ce qui leur a valu le nom vernaculaire anglais de "whispering bells" ("cloches murmurantes")[1].
-Le fruit est une capsule qui contient de nombreuses graines.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée mesure de 15 à 50 cm de hauteur. Les tiges sont couvertes de poils collants, glanduleux, émettant une odeur médicinale assez plaisante. Les feuilles, oblongues et pennatifides, mesurent entre 2,5 et 10 cm de longueur.
 </t>
         </is>
       </c>
@@ -545,10 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et juillet.
+Les fleurs sont jaune pâle, en forme de clochette ; elles mesurent environ 1,3 cm de longueur. Les clochettes s'achèvent par 5 lobes arrondis libres et l'androcée comprend 5 étamines.
+Les corolles restent longtemps en place après qu'elles sont fanées et desséchées. Elles prennent alors un aspect papyracé et bruissent dans le vent, ce qui leur a valu le nom vernaculaire anglais de "whispering bells" ("cloches murmurantes").
+Le fruit est une capsule qui contient de nombreuses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emmenanthe_penduliflora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenanthe_penduliflora</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Emmenanthe penduliflora pousse dans les chenaux des ruisseaux temporaires et sur les collines couvertes de buissons des zones désertiques du sud-ouest des États-Unis et du nord du Mexique. On la trouve sur une aire de répartition restreinte, de la Californie à la Basse-Californie.
 </t>
